--- a/Cronograma PIMIII.xlsx
+++ b/Cronograma PIMIII.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFA5C1-8253-48DA-A282-ACE68B74A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{2BDFA5C1-8253-48DA-A282-ACE68B74A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A6CE55-0735-4B6E-AB07-E5B40DDC0A4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -292,15 +292,6 @@
     <t>BP Soft</t>
   </si>
   <si>
-    <t>Pesquisa sobre Fezendas Urbanas</t>
-  </si>
-  <si>
-    <t>Pesquisa Manual</t>
-  </si>
-  <si>
-    <t>Pesquisa sobra Segurança Alimentar e Banco de Alimentos</t>
-  </si>
-  <si>
     <t>When? (Quando)</t>
   </si>
   <si>
@@ -328,10 +319,49 @@
     <t>Término</t>
   </si>
   <si>
-    <t>Elaboração de Texto para melhor entendimento do assunto para que seja feito o programa</t>
-  </si>
-  <si>
-    <t>Elaboração de texto para melhor entendimento do assunto para que seja feito o programa</t>
+    <t>Pesquisa e elaboração de texto resumido sobre Fezendas Urbanas</t>
+  </si>
+  <si>
+    <t>Pesquisa e elaboração de texto resumido sobre Segurança Alimentar e Banco de Alimentos</t>
+  </si>
+  <si>
+    <t>Pesquisa e elaboração de texto resumido sobre ODS ( Objetivo de Desenvolvimento sustetavél )</t>
+  </si>
+  <si>
+    <t>Melhor entendimento sobre o assunto-tema do PIM III</t>
+  </si>
+  <si>
+    <t>Entender como é o funcionamento e os detalhes de uma fazendo urbana para que seja feito o levantamento de requisitos do sistema</t>
+  </si>
+  <si>
+    <t>Entender o que é a COP 30, importância de ter esse encontro para o debate sobre as mudanças climátias e a importância que o Brasil tem na COP30 para expandir investimentos na agrucultura de baixo carbono.</t>
+  </si>
+  <si>
+    <t>Pesquisa e elaboração de texto resumido sobre LGPD</t>
+  </si>
+  <si>
+    <t>Pesquisa e elaboração de texto resumido sobre COP 30</t>
+  </si>
+  <si>
+    <t>Para garantir que seja feita a trativa de dados pessoais utilizadas no sistema seja seguida conforme os princípois da LGPD.</t>
+  </si>
+  <si>
+    <t>Conhecer o que é a ODS e seus objetivos no mundo com ênfase em seus objetivos ambientais para que seja agregado conhecimento para o desevolvimento do sistema conforme as metas e objetivos da ODS.</t>
+  </si>
+  <si>
+    <t>A pesquisa poderá ser realizado através de Computadores , Notebooks, Celulares, livros , Revistas etc..</t>
+  </si>
+  <si>
+    <t>Para que a documentação do programa siga aos requisitos solicitados.</t>
+  </si>
+  <si>
+    <t>Formatação realizado em meios de transmissões de informações e compartilhado no repositório do GitHub</t>
+  </si>
+  <si>
+    <t>Formatação das Pesquisas</t>
+  </si>
+  <si>
+    <t>Formatação seguindo as Leis da ABNT</t>
   </si>
 </sst>
 </file>
@@ -1465,31 +1495,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1549,7 +1579,7 @@
     <cellStyle name="Vírgula" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
@@ -1558,244 +1588,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1955,15 +1747,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaDeTarefasPendentes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="totalRow" dxfId="36"/>
-      <tableStyleElement type="firstColumn" dxfId="35"/>
-      <tableStyleElement type="lastColumn" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="31"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2111,6 +1903,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2430,106 +2226,106 @@
       <c r="B3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="101">
+      <c r="D3" s="101"/>
+      <c r="E3" s="99">
         <v>45364</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="96">
         <f>I5</f>
         <v>45362</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="98">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="96">
         <f>P5</f>
         <v>45369</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98">
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="96">
         <f>W5</f>
         <v>45376</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98">
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96">
         <f>AD5</f>
         <v>45383</v>
       </c>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98">
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="96">
         <f>AK5</f>
         <v>45390</v>
       </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98">
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="96">
         <f>AR5</f>
         <v>45397</v>
       </c>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="98">
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="96">
         <f>AY5</f>
         <v>45404</v>
       </c>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="98">
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="96">
         <f>BF5</f>
         <v>45411</v>
       </c>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
@@ -5082,17 +4878,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -5109,15 +4905,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL33">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="6" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL33">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>AND(Início_da_tarefa&lt;=I$5,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
       <formula>AND(Término_da_tarefa&gt;=I$5,Início_da_tarefa&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5161,9 +4957,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49A8E0A-8D99-4FDB-BAD6-FE5645DD6369}">
-  <dimension ref="B1:M23"/>
+  <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="81" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5183,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L1" s="92" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M1" s="92" t="s">
         <v>52</v>
@@ -5194,7 +4990,7 @@
         <v>68</v>
       </c>
       <c r="L2" s="92" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M2" s="92" t="s">
         <v>54</v>
@@ -5205,7 +5001,7 @@
         <v>69</v>
       </c>
       <c r="L3" s="92" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M3" s="92" t="s">
         <v>56</v>
@@ -5218,16 +5014,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
       <c r="L5" s="92"/>
       <c r="M5" s="92" t="s">
         <v>60</v>
@@ -5246,10 +5042,10 @@
       <c r="F6" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="103"/>
+      <c r="G6" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="104"/>
       <c r="I6" s="90" t="s">
         <v>65</v>
       </c>
@@ -5258,7 +5054,7 @@
       </c>
       <c r="L6" s="92"/>
       <c r="M6" s="92" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5267,30 +5063,30 @@
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H7" s="90" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
       <c r="L7" s="92"/>
       <c r="M7" s="94" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="89">
         <v>1</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D8" s="91" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="91" t="s">
         <v>52</v>
@@ -5302,27 +5098,27 @@
         <v>45376</v>
       </c>
       <c r="I8" s="91" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="94" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="89">
         <v>2</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D9" s="91" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="91" t="s">
         <v>54</v>
@@ -5334,24 +5130,24 @@
         <v>45376</v>
       </c>
       <c r="I9" s="91" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J9" s="91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="72" x14ac:dyDescent="0.3">
       <c r="B10" s="89">
         <v>3</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="91" t="s">
         <v>56</v>
@@ -5363,27 +5159,25 @@
         <v>45376</v>
       </c>
       <c r="I10" s="91" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J10" s="91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11" s="89"/>
+      <c r="C11" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="91" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89">
-        <v>4</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" s="91" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="95">
         <v>45364</v>
@@ -5392,27 +5186,27 @@
         <v>45376</v>
       </c>
       <c r="I11" s="91" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J11" s="91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="89">
+        <v>4</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="91" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="89">
-        <v>5</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="95">
         <v>45364</v>
@@ -5421,28 +5215,44 @@
         <v>45376</v>
       </c>
       <c r="I12" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="89">
+        <v>5</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="95">
+        <v>45376</v>
+      </c>
+      <c r="H13" s="95">
+        <v>45383</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="89">
         <v>6</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-    </row>
-    <row r="14" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89">
-        <v>7</v>
       </c>
       <c r="C14" s="91"/>
       <c r="D14" s="91"/>
@@ -5453,9 +5263,9 @@
       <c r="I14" s="91"/>
       <c r="J14" s="91"/>
     </row>
-    <row r="15" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
@@ -5466,9 +5276,9 @@
       <c r="I15" s="91"/>
       <c r="J15" s="91"/>
     </row>
-    <row r="16" spans="2:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -5479,9 +5289,9 @@
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
     </row>
-    <row r="17" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -5492,9 +5302,9 @@
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
     </row>
-    <row r="18" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
@@ -5505,9 +5315,9 @@
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
     </row>
-    <row r="19" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
@@ -5518,9 +5328,9 @@
       <c r="I19" s="91"/>
       <c r="J19" s="91"/>
     </row>
-    <row r="20" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="89">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="91"/>
       <c r="D20" s="91"/>
@@ -5531,9 +5341,9 @@
       <c r="I20" s="91"/>
       <c r="J20" s="91"/>
     </row>
-    <row r="21" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="91"/>
@@ -5544,9 +5354,9 @@
       <c r="I21" s="91"/>
       <c r="J21" s="91"/>
     </row>
-    <row r="22" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="91"/>
       <c r="D22" s="91"/>
@@ -5557,9 +5367,9 @@
       <c r="I22" s="91"/>
       <c r="J22" s="91"/>
     </row>
-    <row r="23" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="89">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="91"/>
       <c r="D23" s="91"/>
@@ -5570,32 +5380,45 @@
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="89">
+        <v>16</v>
+      </c>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="G6:H6"/>
   </mergeCells>
-  <conditionalFormatting sqref="J8:J23 M7:M8">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Finalizado">
+  <conditionalFormatting sqref="B8:I13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($H8&lt;TODAY(),$J8&lt;&gt;"Finalizado")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M8 J8:J24">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Não Iniciado">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Não Iniciado">
       <formula>NOT(ISERROR(SEARCH("Não Iniciado",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:I12">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>$H8&lt;TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J12" xr:uid="{AA1B089B-B2F2-4508-AF62-B617634F9484}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J13" xr:uid="{AA1B089B-B2F2-4508-AF62-B617634F9484}">
       <formula1>$L$1:$L$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F23" xr:uid="{30F720D1-FC77-4F6E-9B8C-864ACC871527}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F24" xr:uid="{30F720D1-FC77-4F6E-9B8C-864ACC871527}">
       <formula1>$M$1:$M$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -5710,35 +5533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6026,27 +5820,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6065,4 +5868,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Cronograma PIMIII.xlsx
+++ b/Cronograma PIMIII.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{2BDFA5C1-8253-48DA-A282-ACE68B74A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A6CE55-0735-4B6E-AB07-E5B40DDC0A4C}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{2BDFA5C1-8253-48DA-A282-ACE68B74A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1D4E3C5-37F4-4FAE-A10F-94CDFDF5F195}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CronogramaDeProjeto" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -362,6 +362,24 @@
   </si>
   <si>
     <t>Formatação seguindo as Leis da ABNT</t>
+  </si>
+  <si>
+    <t>Levantamento de Requisitos</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Levantamento de requisitos</t>
+  </si>
+  <si>
+    <t>Sala de Aula (UNIP)</t>
+  </si>
+  <si>
+    <t>Definição dos requisitos necessários para o desenvolvimento do software</t>
+  </si>
+  <si>
+    <t>Levantamento realizado atravéz de Brainstorming</t>
   </si>
 </sst>
 </file>
@@ -1495,6 +1513,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1506,12 +1530,6 @@
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,17 +1600,6 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1618,6 +1625,17 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2175,17 +2193,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
@@ -2226,106 +2244,106 @@
       <c r="B3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="99">
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
         <v>45364</v>
       </c>
-      <c r="F3" s="99"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="96">
+      <c r="I4" s="98">
         <f>I5</f>
         <v>45362</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="96">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f>P5</f>
         <v>45369</v>
       </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="96">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f>W5</f>
         <v>45376</v>
       </c>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="96">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f>AD5</f>
         <v>45383</v>
       </c>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="96">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f>AK5</f>
         <v>45390</v>
       </c>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="96">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f>AR5</f>
         <v>45397</v>
       </c>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="96">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f>AY5</f>
         <v>45404</v>
       </c>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="96">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f>BF5</f>
         <v>45411</v>
       </c>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="98"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
@@ -2890,7 +2908,7 @@
       <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H33" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
+        <f t="shared" ref="H8:H34" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2961,7 +2979,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="72">
         <f>Início_do_projeto</f>
@@ -3283,7 +3301,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="17">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="72">
         <f>Início_do_projeto</f>
@@ -3355,21 +3373,24 @@
       <c r="BL13" s="31"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="72">
+        <v>45383</v>
+      </c>
+      <c r="F14" s="72">
+        <v>45383</v>
+      </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H14" s="14"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -3428,26 +3449,20 @@
       <c r="BL14" s="31"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="75">
-        <f>E13+1</f>
-        <v>45365</v>
-      </c>
-      <c r="F15" s="75">
-        <f>E15+4</f>
-        <v>45369</v>
-      </c>
+      <c r="A15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="H15" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
@@ -3507,26 +3522,26 @@
       <c r="BL15" s="31"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="20">
         <v>0.5</v>
       </c>
       <c r="E16" s="75">
-        <f>E15+2</f>
-        <v>45367</v>
+        <f>E13+1</f>
+        <v>45365</v>
       </c>
       <c r="F16" s="75">
-        <f>E16+5</f>
-        <v>45372</v>
+        <f>E16+4</f>
+        <v>45369</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -3540,8 +3555,8 @@
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
@@ -3588,22 +3603,24 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="55"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="75">
-        <f>F16</f>
+        <f>E16+2</f>
+        <v>45367</v>
+      </c>
+      <c r="F17" s="75">
+        <f>E17+5</f>
         <v>45372</v>
-      </c>
-      <c r="F17" s="75">
-        <f>E17+3</f>
-        <v>45375</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -3617,8 +3634,8 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -3665,22 +3682,22 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="20"/>
       <c r="E18" s="75">
-        <f>E17</f>
+        <f>F17</f>
         <v>45372</v>
       </c>
       <c r="F18" s="75">
-        <f>E18+2</f>
-        <v>45374</v>
+        <f>E18+3</f>
+        <v>45375</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
@@ -3698,7 +3715,7 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
@@ -3742,7 +3759,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="20"/>
@@ -3751,13 +3768,13 @@
         <v>45372</v>
       </c>
       <c r="F19" s="75">
-        <f>E19+3</f>
-        <v>45375</v>
+        <f>E19+2</f>
+        <v>45374</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
@@ -3775,7 +3792,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
+      <c r="Y19" s="32"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="31"/>
@@ -3817,20 +3834,24 @@
       <c r="BL19" s="31"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="75">
+        <f>E19</f>
+        <v>45372</v>
+      </c>
+      <c r="F20" s="75">
+        <f>E20+3</f>
+        <v>45375</v>
+      </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -3890,24 +3911,20 @@
       <c r="BL20" s="31"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45"/>
-      <c r="B21" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="78">
-        <f>E9+15</f>
-        <v>45379</v>
-      </c>
-      <c r="F21" s="78">
-        <f>E21+5</f>
-        <v>45384</v>
-      </c>
+      <c r="A21" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14">
+      <c r="H21" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3969,22 +3986,22 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="23"/>
       <c r="E22" s="78">
-        <f>F21+1</f>
-        <v>45385</v>
+        <f>E9+15</f>
+        <v>45379</v>
       </c>
       <c r="F22" s="78">
-        <f>E22+4</f>
-        <v>45389</v>
+        <f>E22+5</f>
+        <v>45384</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -4046,22 +4063,22 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="23"/>
       <c r="E23" s="78">
-        <f>E22+5</f>
-        <v>45390</v>
+        <f>F22+1</f>
+        <v>45385</v>
       </c>
       <c r="F23" s="78">
-        <f>E23+5</f>
-        <v>45395</v>
+        <f>E23+4</f>
+        <v>45389</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -4123,22 +4140,22 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="23"/>
       <c r="E24" s="78">
-        <f>F23+1</f>
-        <v>45396</v>
+        <f>E23+5</f>
+        <v>45390</v>
       </c>
       <c r="F24" s="78">
-        <f>E24+4</f>
-        <v>45400</v>
+        <f>E24+5</f>
+        <v>45395</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -4200,17 +4217,17 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45"/>
       <c r="B25" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="23"/>
       <c r="E25" s="78">
-        <f>E23</f>
-        <v>45390</v>
+        <f>F24+1</f>
+        <v>45396</v>
       </c>
       <c r="F25" s="78">
         <f>E25+4</f>
-        <v>45394</v>
+        <v>45400</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
@@ -4275,20 +4292,24 @@
       <c r="BL25" s="31"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="78">
+        <f>E24</f>
+        <v>45390</v>
+      </c>
+      <c r="F26" s="78">
+        <f>E26+4</f>
+        <v>45394</v>
+      </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4348,22 +4369,20 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="45"/>
-      <c r="B27" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="e">
+      <c r="H27" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4425,7 +4444,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
       <c r="B28" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="26"/>
@@ -4500,7 +4519,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45"/>
       <c r="B29" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="26"/>
@@ -4575,7 +4594,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45"/>
       <c r="B30" s="64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
@@ -4650,7 +4669,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="45"/>
       <c r="B31" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="26"/>
@@ -4723,18 +4742,22 @@
       <c r="BL31" s="31"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>29</v>
+      </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="14" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
@@ -4794,103 +4817,174 @@
       <c r="BL32" s="31"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="str">
+      <c r="A33" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="33"/>
-      <c r="AX33" s="33"/>
-      <c r="AY33" s="33"/>
-      <c r="AZ33" s="33"/>
-      <c r="BA33" s="33"/>
-      <c r="BB33" s="33"/>
-      <c r="BC33" s="33"/>
-      <c r="BD33" s="33"/>
-      <c r="BE33" s="33"/>
-      <c r="BF33" s="33"/>
-      <c r="BG33" s="33"/>
-      <c r="BH33" s="33"/>
-      <c r="BI33" s="33"/>
-      <c r="BJ33" s="33"/>
-      <c r="BK33" s="33"/>
-      <c r="BL33" s="33"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="6"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="31"/>
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="31"/>
+    </row>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="33"/>
+      <c r="AO34" s="33"/>
+      <c r="AP34" s="33"/>
+      <c r="AQ34" s="33"/>
+      <c r="AR34" s="33"/>
+      <c r="AS34" s="33"/>
+      <c r="AT34" s="33"/>
+      <c r="AU34" s="33"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="33"/>
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="33"/>
+      <c r="AZ34" s="33"/>
+      <c r="BA34" s="33"/>
+      <c r="BB34" s="33"/>
+      <c r="BC34" s="33"/>
+      <c r="BD34" s="33"/>
+      <c r="BE34" s="33"/>
+      <c r="BF34" s="33"/>
+      <c r="BG34" s="33"/>
+      <c r="BH34" s="33"/>
+      <c r="BI34" s="33"/>
+      <c r="BJ34" s="33"/>
+      <c r="BK34" s="33"/>
+      <c r="BL34" s="33"/>
     </row>
     <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="11"/>
-      <c r="F35" s="47"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
+  <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4904,12 +4998,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL33">
+  <conditionalFormatting sqref="I5:BL34">
     <cfRule type="expression" dxfId="6" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL33">
+  <conditionalFormatting sqref="I7:BL34">
     <cfRule type="expression" dxfId="5" priority="27">
       <formula>AND(Início_da_tarefa&lt;=I$5,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=I$5)</formula>
     </cfRule>
@@ -4929,7 +5023,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
+    <ignoredError sqref="F19 F23:F24 E24" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4947,7 +5041,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4957,10 +5051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49A8E0A-8D99-4FDB-BAD6-FE5645DD6369}">
-  <dimension ref="B1:M24"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5135,6 +5229,9 @@
       <c r="J9" s="91" t="s">
         <v>73</v>
       </c>
+      <c r="M9" s="92" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="72" x14ac:dyDescent="0.3">
       <c r="B10" s="89">
@@ -5247,25 +5344,41 @@
         <v>93</v>
       </c>
       <c r="J13" s="91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="89">
-        <v>6</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="95">
+        <v>45383</v>
+      </c>
+      <c r="H14" s="95">
+        <v>45383</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="91" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
@@ -5278,7 +5391,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -5291,7 +5404,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="89">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -5304,7 +5417,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
@@ -5317,7 +5430,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
@@ -5330,7 +5443,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="91"/>
       <c r="D20" s="91"/>
@@ -5343,7 +5456,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="91"/>
@@ -5356,7 +5469,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="91"/>
       <c r="D22" s="91"/>
@@ -5369,7 +5482,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="91"/>
       <c r="D23" s="91"/>
@@ -5380,46 +5493,33 @@
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="89">
-        <v>16</v>
-      </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="G6:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($H8&lt;TODAY(),$J8&lt;&gt;"Finalizado")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M8 J8:J24">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Finalizado">
+  <conditionalFormatting sqref="M7:M8 J8:J23">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Não Iniciado">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Não Iniciado">
       <formula>NOT(ISERROR(SEARCH("Não Iniciado",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J13" xr:uid="{AA1B089B-B2F2-4508-AF62-B617634F9484}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J14" xr:uid="{AA1B089B-B2F2-4508-AF62-B617634F9484}">
       <formula1>$L$1:$L$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F24" xr:uid="{30F720D1-FC77-4F6E-9B8C-864ACC871527}">
-      <formula1>$M$1:$M$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F23" xr:uid="{1A00CE5F-4367-4006-8B57-83D92A5CBF24}">
+      <formula1>$M$1:$M$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5533,6 +5633,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5820,36 +5949,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5868,24 +5988,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Cronograma PIMIII.xlsx
+++ b/Cronograma PIMIII.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{2BDFA5C1-8253-48DA-A282-ACE68B74A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1D4E3C5-37F4-4FAE-A10F-94CDFDF5F195}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F0EA5B-6E3E-4019-980B-DDD0D916D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>Crie um cronograma de projeto nesta planilha.
 Digite o título desse projeto na célula B1. 
@@ -136,9 +136,6 @@
     <t>Tarefa 5</t>
   </si>
   <si>
-    <t>Título Fase 2</t>
-  </si>
-  <si>
     <t>Título Fase 3</t>
   </si>
   <si>
@@ -380,6 +377,27 @@
   </si>
   <si>
     <t>Levantamento realizado atravéz de Brainstorming</t>
+  </si>
+  <si>
+    <t>Diagramas e prototipação (Controle Fornecedores)</t>
+  </si>
+  <si>
+    <t>Klaus e Lucas</t>
+  </si>
+  <si>
+    <t>Prototipação Telas</t>
+  </si>
+  <si>
+    <t>Kayky e Vinicius</t>
+  </si>
+  <si>
+    <t>Caso de Uso e Atividade</t>
+  </si>
+  <si>
+    <t>Marcelino e Marco</t>
+  </si>
+  <si>
+    <t>DER, Relacional e Classes</t>
   </si>
 </sst>
 </file>
@@ -1513,23 +1531,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1923,10 +1941,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2193,11 +2207,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL37"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2210,7 +2224,8 @@
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="9" max="47" width="2.5546875" hidden="1" customWidth="1"/>
+    <col min="48" max="64" width="2.5546875" customWidth="1"/>
     <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
@@ -2219,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2233,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="68"/>
     </row>
@@ -2242,108 +2257,108 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="101">
+        <v>48</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="99">
         <v>45364</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="97"/>
+      <c r="C4" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="101"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="96">
         <f>I5</f>
         <v>45362</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="98">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="96">
         <f>P5</f>
         <v>45369</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98">
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="96">
         <f>W5</f>
         <v>45376</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98">
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96">
         <f>AD5</f>
         <v>45383</v>
       </c>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98">
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="96">
         <f>AK5</f>
         <v>45390</v>
       </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98">
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="96">
         <f>AR5</f>
         <v>45397</v>
       </c>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="98">
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="96">
         <f>AY5</f>
         <v>45404</v>
       </c>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="98">
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="96">
         <f>BF5</f>
         <v>45411</v>
       </c>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
@@ -2588,20 +2603,20 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2900,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -2908,7 +2923,7 @@
       <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H34" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
+        <f t="shared" ref="H8:H32" si="6">IF(OR(ISBLANK(Início_da_tarefa),ISBLANK(Término_da_tarefa)),"",Término_da_tarefa-Início_da_tarefa+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2973,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -3055,10 +3070,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -3135,10 +3150,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -3215,10 +3230,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -3295,10 +3310,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -3375,10 +3390,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="45"/>
       <c r="B14" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="53" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>95</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -3453,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="19"/>
@@ -3524,24 +3539,25 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="46"/>
       <c r="B16" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>103</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>100</v>
+      </c>
       <c r="D16" s="20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="75">
-        <f>E13+1</f>
-        <v>45365</v>
+        <v>45401</v>
       </c>
       <c r="F16" s="75">
-        <f>E16+4</f>
-        <v>45369</v>
+        <f>E16+5</f>
+        <v>45406</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -3603,19 +3619,20 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>102</v>
+      </c>
       <c r="D17" s="20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="75">
-        <f>E16+2</f>
-        <v>45367</v>
+        <v>45401</v>
       </c>
       <c r="F17" s="75">
         <f>E17+5</f>
-        <v>45372</v>
+        <v>45406</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
@@ -3682,22 +3699,25 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
       <c r="E18" s="75">
-        <f>F17</f>
-        <v>45372</v>
+        <v>45401</v>
       </c>
       <c r="F18" s="75">
-        <f>E18+3</f>
-        <v>45375</v>
+        <f>E18+5</f>
+        <v>45406</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
@@ -3757,24 +3777,20 @@
       <c r="BL18" s="31"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
-      <c r="B19" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="75">
-        <f>E18</f>
-        <v>45372</v>
-      </c>
-      <c r="F19" s="75">
-        <f>E19+2</f>
-        <v>45374</v>
-      </c>
+      <c r="A19" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="H19" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
@@ -3792,7 +3808,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="32"/>
+      <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="31"/>
@@ -3835,23 +3851,23 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="45"/>
-      <c r="B20" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="75">
-        <f>E19</f>
-        <v>45372</v>
-      </c>
-      <c r="F20" s="75">
-        <f>E20+3</f>
-        <v>45375</v>
+      <c r="B20" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="78">
+        <f>E9+15</f>
+        <v>45379</v>
+      </c>
+      <c r="F20" s="78">
+        <f>E20+5</f>
+        <v>45384</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -3911,20 +3927,24 @@
       <c r="BL20" s="31"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="78">
+        <f>F20+1</f>
+        <v>45385</v>
+      </c>
+      <c r="F21" s="78">
+        <f>E21+4</f>
+        <v>45389</v>
+      </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3986,17 +4006,17 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="23"/>
       <c r="E22" s="78">
-        <f>E9+15</f>
-        <v>45379</v>
+        <f>E21+5</f>
+        <v>45390</v>
       </c>
       <c r="F22" s="78">
         <f>E22+5</f>
-        <v>45384</v>
+        <v>45395</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
@@ -4063,17 +4083,17 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="23"/>
       <c r="E23" s="78">
         <f>F22+1</f>
-        <v>45385</v>
+        <v>45396</v>
       </c>
       <c r="F23" s="78">
         <f>E23+4</f>
-        <v>45389</v>
+        <v>45400</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
@@ -4140,22 +4160,22 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="23"/>
       <c r="E24" s="78">
-        <f>E23+5</f>
+        <f>E22</f>
         <v>45390</v>
       </c>
       <c r="F24" s="78">
-        <f>E24+5</f>
-        <v>45395</v>
+        <f>E24+4</f>
+        <v>45394</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -4215,24 +4235,20 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="45"/>
-      <c r="B25" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="78">
-        <f>F24+1</f>
-        <v>45396</v>
-      </c>
-      <c r="F25" s="78">
-        <f>E25+4</f>
-        <v>45400</v>
-      </c>
+      <c r="A25" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
+      <c r="H25" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -4293,23 +4309,21 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="45"/>
-      <c r="B26" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="78">
-        <f>E24</f>
-        <v>45390</v>
-      </c>
-      <c r="F26" s="78">
-        <f>E26+4</f>
-        <v>45394</v>
+      <c r="B26" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="81" t="s">
+        <v>28</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14">
+      <c r="H26" s="14" t="e">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4369,20 +4383,22 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>28</v>
+      </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="14" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4444,15 +4460,15 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
       <c r="B28" s="64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="26"/>
       <c r="E28" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14" t="e">
@@ -4519,15 +4535,15 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45"/>
       <c r="B29" s="64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="26"/>
       <c r="E29" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="e">
@@ -4594,15 +4610,15 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45"/>
       <c r="B30" s="64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
       <c r="E30" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="e">
@@ -4667,22 +4683,18 @@
       <c r="BL30" s="31"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="45"/>
-      <c r="B31" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="14" t="e">
+      <c r="H31" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -4742,249 +4754,103 @@
       <c r="BL31" s="31"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="45"/>
-      <c r="B32" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
-      <c r="AW32" s="31"/>
-      <c r="AX32" s="31"/>
-      <c r="AY32" s="31"/>
-      <c r="AZ32" s="31"/>
-      <c r="BA32" s="31"/>
-      <c r="BB32" s="31"/>
-      <c r="BC32" s="31"/>
-      <c r="BD32" s="31"/>
-      <c r="BE32" s="31"/>
-      <c r="BF32" s="31"/>
-      <c r="BG32" s="31"/>
-      <c r="BH32" s="31"/>
-      <c r="BI32" s="31"/>
-      <c r="BJ32" s="31"/>
-      <c r="BK32" s="31"/>
-      <c r="BL32" s="31"/>
-    </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="str">
+      <c r="A32" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="31"/>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="31"/>
-      <c r="AP33" s="31"/>
-      <c r="AQ33" s="31"/>
-      <c r="AR33" s="31"/>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="31"/>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
-      <c r="AW33" s="31"/>
-      <c r="AX33" s="31"/>
-      <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="31"/>
-      <c r="BC33" s="31"/>
-      <c r="BD33" s="31"/>
-      <c r="BE33" s="31"/>
-      <c r="BF33" s="31"/>
-      <c r="BG33" s="31"/>
-      <c r="BH33" s="31"/>
-      <c r="BI33" s="31"/>
-      <c r="BJ33" s="31"/>
-      <c r="BK33" s="31"/>
-      <c r="BL33" s="31"/>
-    </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="33"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="33"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="33"/>
-      <c r="BI34" s="33"/>
-      <c r="BJ34" s="33"/>
-      <c r="BK34" s="33"/>
-      <c r="BL34" s="33"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="11"/>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="12"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33"/>
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33"/>
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="33"/>
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="33"/>
+      <c r="BB32" s="33"/>
+      <c r="BC32" s="33"/>
+      <c r="BD32" s="33"/>
+      <c r="BE32" s="33"/>
+      <c r="BF32" s="33"/>
+      <c r="BG32" s="33"/>
+      <c r="BH32" s="33"/>
+      <c r="BI32" s="33"/>
+      <c r="BJ32" s="33"/>
+      <c r="BK32" s="33"/>
+      <c r="BL32" s="33"/>
+    </row>
+    <row r="33" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="11"/>
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D34">
+  <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4998,12 +4864,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
+  <conditionalFormatting sqref="I5:BL32">
     <cfRule type="expression" dxfId="6" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL34">
+  <conditionalFormatting sqref="I7:BL32">
     <cfRule type="expression" dxfId="5" priority="27">
       <formula>AND(Início_da_tarefa&lt;=I$5,ROUNDDOWN((Término_da_tarefa-Início_da_tarefa+1)*Progresso_da_tarefa,0)+Início_da_tarefa-1&gt;=I$5)</formula>
     </cfRule>
@@ -5023,7 +4889,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F19 F23:F24 E24" formula="1"/>
+    <ignoredError sqref="F21:F22 E22" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5041,7 +4907,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D34</xm:sqref>
+          <xm:sqref>D7:D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5053,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49A8E0A-8D99-4FDB-BAD6-FE5645DD6369}">
   <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5073,43 +4939,43 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L1" s="92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1" s="92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L4" s="92"/>
       <c r="M4" s="92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="102"/>
@@ -5120,35 +4986,35 @@
       <c r="J5" s="102"/>
       <c r="L5" s="92"/>
       <c r="M5" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C6" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="E6" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="F6" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="90" t="s">
-        <v>64</v>
-      </c>
       <c r="G6" s="103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="104"/>
       <c r="I6" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="90" t="s">
         <v>65</v>
-      </c>
-      <c r="J6" s="90" t="s">
-        <v>66</v>
       </c>
       <c r="L6" s="92"/>
       <c r="M6" s="92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5157,16 +5023,16 @@
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="90" t="s">
         <v>77</v>
-      </c>
-      <c r="H7" s="90" t="s">
-        <v>78</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
       <c r="L7" s="92"/>
       <c r="M7" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="72" x14ac:dyDescent="0.3">
@@ -5174,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="95">
         <v>45364</v>
@@ -5192,13 +5058,13 @@
         <v>45376</v>
       </c>
       <c r="I8" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="72" x14ac:dyDescent="0.3">
@@ -5206,16 +5072,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="95">
         <v>45364</v>
@@ -5224,13 +5090,13 @@
         <v>45376</v>
       </c>
       <c r="I9" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="72" x14ac:dyDescent="0.3">
@@ -5238,16 +5104,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="95">
         <v>45364</v>
@@ -5256,25 +5122,25 @@
         <v>45376</v>
       </c>
       <c r="I10" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="72" x14ac:dyDescent="0.3">
       <c r="B11" s="89"/>
       <c r="C11" s="91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="95">
         <v>45364</v>
@@ -5283,10 +5149,10 @@
         <v>45376</v>
       </c>
       <c r="I11" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="72" x14ac:dyDescent="0.3">
@@ -5294,16 +5160,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="95">
         <v>45364</v>
@@ -5312,10 +5178,10 @@
         <v>45376</v>
       </c>
       <c r="I12" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -5323,16 +5189,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="91" t="s">
-        <v>91</v>
-      </c>
       <c r="F13" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="95">
         <v>45376</v>
@@ -5341,10 +5207,10 @@
         <v>45383</v>
       </c>
       <c r="I13" s="91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -5352,16 +5218,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>97</v>
-      </c>
       <c r="F14" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="95">
         <v>45383</v>
@@ -5370,10 +5236,10 @@
         <v>45383</v>
       </c>
       <c r="I14" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -5544,79 +5410,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="35" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5633,35 +5499,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5949,27 +5786,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5988,4 +5834,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>